--- a/Test/Lawnmower/T2/Sensors_data_1000028.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000028.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.985815274429655</v>
+        <v>0.9850794457101451</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0005578312216092104</v>
+        <v>0.0005923959596252636</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3408754628539453</v>
+        <v>0.08124195556445984</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9853548142611948</v>
+        <v>0.9783677958406214</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0008250788748847171</v>
+        <v>0.001894747941048684</v>
       </c>
       <c r="E3" t="n">
-        <v>0.193900462561149</v>
+        <v>0.1366493642046635</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6627830412668383</v>
+        <v>0.7923579489875774</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01294032900673199</v>
+        <v>0.008165770877926417</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3062237009550167</v>
+        <v>0.3409880118316847</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -550,18 +550,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2458258266103646</v>
+        <v>0.9783613524129685</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03103026191882387</v>
+        <v>0.00121907576479746</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09253137296464303</v>
+        <v>0.201597627874459</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9789172086818476</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0008090288728718556</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.02109046107604834</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
